--- a/surveyData.xlsx
+++ b/surveyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heraa\Documents\University\Doctoral Directed Studies\Guest Lecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heraa\Documents\University\Doctoral Directed Studies\datat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1EB6B0-6264-47E5-BEDB-3F44DEE68599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CDB315-FBAB-4BC7-9D1D-10D6FF7D978D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,11 +122,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -134,8 +147,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +460,7 @@
   <dimension ref="A1:Q1160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +514,7 @@
       <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
